--- a/Clade_Analysis/Clade_Unique_Mutation_Counts.xlsx
+++ b/Clade_Analysis/Clade_Unique_Mutation_Counts.xlsx
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -563,7 +563,7 @@
         <v>86</v>
       </c>
       <c r="F3">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -592,7 +592,7 @@
         <v>28</v>
       </c>
       <c r="F4">
-        <v>479</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -650,7 +650,7 @@
         <v>61</v>
       </c>
       <c r="F6">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>25</v>
@@ -679,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>35</v>
       </c>
       <c r="F8">
-        <v>417</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>44</v>
       </c>
       <c r="F12">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>40</v>
@@ -853,7 +853,7 @@
         <v>43</v>
       </c>
       <c r="F13">
-        <v>363</v>
+        <v>21</v>
       </c>
       <c r="G13">
         <v>23</v>
@@ -882,7 +882,7 @@
         <v>49</v>
       </c>
       <c r="F14">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>52</v>
@@ -911,7 +911,7 @@
         <v>57</v>
       </c>
       <c r="F15">
-        <v>356</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>71</v>
@@ -940,7 +940,7 @@
         <v>69</v>
       </c>
       <c r="F16">
-        <v>329</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -969,7 +969,7 @@
         <v>62</v>
       </c>
       <c r="F17">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="G17">
         <v>82</v>
@@ -998,7 +998,7 @@
         <v>64</v>
       </c>
       <c r="F18">
-        <v>349</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>38</v>
       </c>
       <c r="F19">
-        <v>371</v>
+        <v>63</v>
       </c>
       <c r="G19">
         <v>22</v>
@@ -1056,7 +1056,7 @@
         <v>73</v>
       </c>
       <c r="F20">
-        <v>389</v>
+        <v>62</v>
       </c>
       <c r="G20">
         <v>53</v>
@@ -1085,7 +1085,7 @@
         <v>52</v>
       </c>
       <c r="F21">
-        <v>379</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>34</v>
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="F22">
-        <v>388</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>28</v>
       </c>
       <c r="F23">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>2</v>
